--- a/EvolvedTax_Institute/wwwroot/Templates/Form1099LSTemplate.xlsx
+++ b/EvolvedTax_Institute/wwwroot/Templates/Form1099LSTemplate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Code Repos\EvoTaxes\EvolvedTax_Institute\wwwroot\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E621E757-F17F-4811-B925-A401D92A564F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF07BE6D-BBAD-406B-9307-67AB1A0E35AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1099-LS" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="442">
   <si>
     <t>Rcp TIN</t>
   </si>
@@ -69,9 +69,6 @@
     <t>EVERETT A</t>
   </si>
   <si>
-    <t>u</t>
-  </si>
-  <si>
     <t>317 GRAND AVE</t>
   </si>
   <si>
@@ -123,9 +120,6 @@
     <t>LILLIAN</t>
   </si>
   <si>
-    <t>c</t>
-  </si>
-  <si>
     <t>PINECREST DRIVE RFD 2</t>
   </si>
   <si>
@@ -198,9 +192,6 @@
     <t>% JANE OSAKI</t>
   </si>
   <si>
-    <t>o</t>
-  </si>
-  <si>
     <t>2-1-2 KASU, CHIYODA-KU</t>
   </si>
   <si>
@@ -1351,6 +1342,12 @@
   </si>
   <si>
     <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>Others</t>
   </si>
 </sst>
 </file>
@@ -1995,15 +1992,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2021,6 +2009,15 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2347,47 +2344,47 @@
   <dimension ref="A1:AB13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.5703125" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.54296875" customWidth="1"/>
+    <col min="12" max="12" width="10.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.81640625" customWidth="1"/>
     <col min="19" max="22" width="26" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="20.140625" customWidth="1"/>
+    <col min="23" max="24" width="20.1796875" customWidth="1"/>
     <col min="25" max="25" width="14" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -2396,10 +2393,10 @@
         <v>6</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>3</v>
@@ -2408,16 +2405,16 @@
         <v>4</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>5</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>7</v>
@@ -2426,28 +2423,28 @@
         <v>8</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="S1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="V1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>130</v>
       </c>
       <c r="Y1" s="4" t="s">
         <v>9</v>
@@ -2459,10 +2456,10 @@
         <v>11</v>
       </c>
       <c r="AB1" s="13" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -2473,25 +2470,25 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
+        <v>440</v>
+      </c>
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" t="s">
         <v>20</v>
-      </c>
-      <c r="O2" t="s">
-        <v>21</v>
       </c>
       <c r="P2">
         <v>1000</v>
@@ -2500,54 +2497,54 @@
         <v>44571</v>
       </c>
       <c r="R2" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="U2" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="V2" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="W2" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="X2" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="V2" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="W2" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="X2" s="10" t="s">
+      <c r="Y2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB2" t="s">
         <v>137</v>
       </c>
-      <c r="Y2" t="s">
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
+      <c r="G3" t="s">
         <v>25</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>26</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>27</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="N3" s="7">
         <v>30555552</v>
@@ -2559,61 +2556,61 @@
         <v>44602</v>
       </c>
       <c r="R3" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="U3" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="S3" s="10" t="s">
+      <c r="V3" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="W3" s="10" t="s">
         <v>133</v>
-      </c>
-      <c r="U3" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="V3" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="W3" s="10" t="s">
-        <v>136</v>
       </c>
       <c r="X3" s="10"/>
       <c r="Y3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
+        <v>214</v>
+      </c>
+      <c r="G4" t="s">
         <v>32</v>
       </c>
-      <c r="E4" t="s">
+      <c r="I4" t="s">
         <v>33</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>34</v>
       </c>
-      <c r="I4" t="s">
+      <c r="L4" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="J4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="N4" s="7">
         <v>56065066</v>
       </c>
       <c r="O4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P4">
         <v>300</v>
@@ -2622,58 +2619,58 @@
         <v>44630</v>
       </c>
       <c r="R4" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="U4" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="S4" s="10" t="s">
+      <c r="V4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="T4" s="10" t="s">
+      <c r="W4" s="10" t="s">
         <v>133</v>
-      </c>
-      <c r="U4" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="V4" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="W4" s="10" t="s">
-        <v>136</v>
       </c>
       <c r="X4" s="10"/>
       <c r="Y4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
         <v>39</v>
       </c>
-      <c r="AB4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="C5" t="s">
         <v>40</v>
       </c>
-      <c r="B5" t="s">
+      <c r="G5" t="s">
         <v>41</v>
       </c>
-      <c r="C5" t="s">
+      <c r="I5" t="s">
         <v>42</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J5" t="s">
         <v>43</v>
-      </c>
-      <c r="I5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" t="s">
-        <v>45</v>
       </c>
       <c r="L5" s="7">
         <v>14525</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P5">
         <v>1750</v>
@@ -2682,55 +2679,55 @@
         <v>44661</v>
       </c>
       <c r="R5" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="T5" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="U5" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="S5" s="10" t="s">
+      <c r="V5" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="T5" s="10" t="s">
+      <c r="W5" s="10" t="s">
         <v>133</v>
-      </c>
-      <c r="U5" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="V5" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="W5" s="10" t="s">
-        <v>136</v>
       </c>
       <c r="X5" s="10"/>
       <c r="Y5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
         <v>47</v>
       </c>
-      <c r="B6" t="s">
+      <c r="G6" t="s">
         <v>48</v>
       </c>
-      <c r="C6" t="s">
+      <c r="I6" t="s">
         <v>49</v>
       </c>
-      <c r="G6" t="s">
+      <c r="J6" t="s">
         <v>50</v>
-      </c>
-      <c r="I6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J6" t="s">
-        <v>52</v>
       </c>
       <c r="L6" s="7">
         <v>96049</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P6">
         <v>250</v>
@@ -2739,58 +2736,58 @@
         <v>44691</v>
       </c>
       <c r="R6" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="T6" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="U6" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="S6" s="10" t="s">
+      <c r="V6" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="T6" s="10" t="s">
+      <c r="W6" s="10" t="s">
         <v>133</v>
-      </c>
-      <c r="U6" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="V6" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="W6" s="10" t="s">
-        <v>136</v>
       </c>
       <c r="X6" s="10"/>
       <c r="Y6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
         <v>54</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>55</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
+        <v>441</v>
+      </c>
+      <c r="F7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" t="s">
         <v>56</v>
       </c>
-      <c r="D7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" t="s">
-        <v>59</v>
-      </c>
       <c r="I7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N7" s="7">
         <v>75503566</v>
@@ -2802,49 +2799,49 @@
         <v>44722</v>
       </c>
       <c r="R7" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="T7" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="U7" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="S7" s="10" t="s">
+      <c r="V7" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="T7" s="10" t="s">
+      <c r="W7" s="10" t="s">
         <v>133</v>
-      </c>
-      <c r="U7" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="V7" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="W7" s="10" t="s">
-        <v>136</v>
       </c>
       <c r="X7" s="10"/>
       <c r="Y7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" t="s">
         <v>61</v>
       </c>
-      <c r="B8" t="s">
+      <c r="I8" t="s">
         <v>62</v>
       </c>
-      <c r="C8" t="s">
+      <c r="J8" t="s">
         <v>63</v>
-      </c>
-      <c r="G8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" t="s">
-        <v>65</v>
-      </c>
-      <c r="J8" t="s">
-        <v>66</v>
       </c>
       <c r="L8" s="7">
         <v>85082</v>
@@ -2859,49 +2856,49 @@
         <v>44752</v>
       </c>
       <c r="R8" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="S8" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="T8" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="U8" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="S8" s="10" t="s">
+      <c r="V8" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="T8" s="10" t="s">
+      <c r="W8" s="10" t="s">
         <v>133</v>
-      </c>
-      <c r="U8" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="V8" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="W8" s="10" t="s">
-        <v>136</v>
       </c>
       <c r="X8" s="10"/>
       <c r="Y8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" t="s">
         <v>67</v>
       </c>
-      <c r="B9" t="s">
+      <c r="I9" t="s">
         <v>68</v>
       </c>
-      <c r="C9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" t="s">
-        <v>71</v>
-      </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L9" s="7">
         <v>11249</v>
@@ -2916,7 +2913,7 @@
         <v>44783</v>
       </c>
       <c r="R9" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
@@ -2925,33 +2922,33 @@
       <c r="W9" s="10"/>
       <c r="X9" s="10"/>
       <c r="Y9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" t="s">
         <v>72</v>
       </c>
-      <c r="B10" t="s">
+      <c r="H10" t="s">
         <v>73</v>
       </c>
-      <c r="C10" t="s">
+      <c r="I10" t="s">
         <v>74</v>
       </c>
-      <c r="G10" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" t="s">
-        <v>76</v>
-      </c>
-      <c r="I10" t="s">
-        <v>77</v>
-      </c>
       <c r="J10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L10" s="7">
         <v>90402</v>
@@ -2960,7 +2957,7 @@
         <v>44544884</v>
       </c>
       <c r="O10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="P10">
         <v>350</v>
@@ -2969,7 +2966,7 @@
         <v>44814</v>
       </c>
       <c r="R10" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
@@ -2978,48 +2975,48 @@
       <c r="W10" s="10"/>
       <c r="X10" s="10"/>
       <c r="Y10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" t="s">
         <v>79</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="C11" t="s">
         <v>80</v>
       </c>
-      <c r="AB10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="D11" t="s">
         <v>81</v>
       </c>
-      <c r="B11" t="s">
+      <c r="G11" t="s">
         <v>82</v>
       </c>
-      <c r="C11" t="s">
+      <c r="I11" t="s">
         <v>83</v>
       </c>
-      <c r="D11" t="s">
+      <c r="J11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="G11" t="s">
-        <v>85</v>
-      </c>
-      <c r="I11" t="s">
-        <v>86</v>
-      </c>
-      <c r="J11" t="s">
-        <v>52</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="N11" s="7">
         <v>79853655</v>
       </c>
       <c r="O11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P11">
         <v>20</v>
@@ -3028,7 +3025,7 @@
         <v>44844</v>
       </c>
       <c r="R11" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
@@ -3037,30 +3034,30 @@
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
       <c r="Y11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" t="s">
         <v>89</v>
       </c>
-      <c r="B12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" t="s">
-        <v>91</v>
-      </c>
-      <c r="G12" t="s">
-        <v>92</v>
-      </c>
       <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
         <v>17</v>
-      </c>
-      <c r="J12" t="s">
-        <v>18</v>
       </c>
       <c r="L12" s="7">
         <v>97404</v>
@@ -3075,7 +3072,7 @@
         <v>44875</v>
       </c>
       <c r="R12" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
@@ -3084,33 +3081,33 @@
       <c r="W12" s="10"/>
       <c r="X12" s="10"/>
       <c r="Y12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB12" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" t="s">
         <v>93</v>
       </c>
-      <c r="B13" t="s">
+      <c r="I13" t="s">
         <v>94</v>
       </c>
-      <c r="C13" t="s">
+      <c r="J13" t="s">
         <v>95</v>
       </c>
-      <c r="G13" t="s">
+      <c r="L13" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="I13" t="s">
-        <v>97</v>
-      </c>
-      <c r="J13" t="s">
-        <v>98</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="N13" s="7">
         <v>85006506</v>
@@ -3122,7 +3119,7 @@
         <v>44905</v>
       </c>
       <c r="R13" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
@@ -3131,13 +3128,16 @@
       <c r="W13" s="10"/>
       <c r="X13" s="10"/>
       <c r="Y13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB1:AB1048576" xr:uid="{05016573-AE83-4EC2-B8EF-B8432B8D5F46}">
       <formula1>"Yes, No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{81CEA1A3-3322-426B-BD09-2B68D6C4D19E}">
+      <formula1>"US, Canada, Others"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3170,226 +3170,220 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" customWidth="1"/>
-    <col min="7" max="7" width="59.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" customWidth="1"/>
+    <col min="5" max="5" width="22.54296875" customWidth="1"/>
+    <col min="7" max="7" width="59.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="5" t="s">
+      <c r="G2" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="6" t="s">
+      <c r="G3" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="6" t="s">
+    </row>
+    <row r="6" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="6" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="15" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="23"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="23"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="17"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="17"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="17"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A7:K7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A6:K6"/>
     <mergeCell ref="A15:K15"/>
     <mergeCell ref="A14:K14"/>
     <mergeCell ref="A8:K8"/>
@@ -3398,6 +3392,12 @@
     <mergeCell ref="A11:K11"/>
     <mergeCell ref="A12:K12"/>
     <mergeCell ref="A13:K13"/>
+    <mergeCell ref="A7:K7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A6:K6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
@@ -3418,1423 +3418,1423 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" t="s">
         <v>147</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B4" t="s">
         <v>149</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>151</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B7" t="s">
         <v>153</v>
       </c>
-      <c r="B5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>154</v>
       </c>
-      <c r="B6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>155</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>157</v>
       </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>158</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>160</v>
       </c>
-      <c r="B10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B12" t="s">
         <v>161</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B13" t="s">
         <v>163</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B14" t="s">
         <v>165</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B15" t="s">
         <v>167</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B16" t="s">
         <v>169</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B17" t="s">
         <v>171</v>
       </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B18" t="s">
         <v>173</v>
       </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B19" t="s">
         <v>175</v>
       </c>
-      <c r="B18" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B20" t="s">
         <v>177</v>
       </c>
-      <c r="B19" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B21" t="s">
         <v>179</v>
       </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B22" t="s">
         <v>181</v>
       </c>
-      <c r="B21" t="s">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B23" t="s">
         <v>183</v>
       </c>
-      <c r="B22" t="s">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B24" t="s">
         <v>185</v>
       </c>
-      <c r="B23" t="s">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B25" t="s">
         <v>187</v>
       </c>
-      <c r="B24" t="s">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B26" t="s">
         <v>189</v>
       </c>
-      <c r="B25" t="s">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B27" t="s">
         <v>191</v>
       </c>
-      <c r="B26" t="s">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B28" t="s">
         <v>193</v>
       </c>
-      <c r="B27" t="s">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B29" t="s">
         <v>195</v>
       </c>
-      <c r="B28" t="s">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B30" t="s">
         <v>197</v>
       </c>
-      <c r="B29" t="s">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B31" t="s">
         <v>199</v>
       </c>
-      <c r="B30" t="s">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B32" t="s">
         <v>201</v>
       </c>
-      <c r="B31" t="s">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B33" t="s">
         <v>203</v>
       </c>
-      <c r="B32" t="s">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B34" t="s">
         <v>205</v>
       </c>
-      <c r="B33" t="s">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>207</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B36" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>209</v>
       </c>
-      <c r="B35" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B37" t="s">
         <v>210</v>
       </c>
-      <c r="B36" t="s">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>212</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B39" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>214</v>
       </c>
-      <c r="B38" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B40" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>215</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B41" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>217</v>
       </c>
-      <c r="B40" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="B42" t="s">
         <v>218</v>
       </c>
-      <c r="B41" t="s">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="B43" t="s">
         <v>220</v>
       </c>
-      <c r="B42" t="s">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="B44" t="s">
         <v>222</v>
       </c>
-      <c r="B43" t="s">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="B45" t="s">
         <v>224</v>
       </c>
-      <c r="B44" t="s">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="B46" t="s">
         <v>226</v>
       </c>
-      <c r="B45" t="s">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="B47" t="s">
         <v>228</v>
       </c>
-      <c r="B46" t="s">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="B48" t="s">
         <v>230</v>
       </c>
-      <c r="B47" t="s">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="B49" t="s">
         <v>232</v>
       </c>
-      <c r="B48" t="s">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="B50" t="s">
         <v>234</v>
       </c>
-      <c r="B49" t="s">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="B51" t="s">
         <v>236</v>
       </c>
-      <c r="B50" t="s">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="B52" t="s">
         <v>238</v>
       </c>
-      <c r="B51" t="s">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>240</v>
       </c>
-      <c r="B52" t="s">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
         <v>439</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>442</v>
       </c>
     </row>
   </sheetData>
